--- a/lecture/xlsx/result.xlsx
+++ b/lecture/xlsx/result.xlsx
@@ -399,7 +399,7 @@
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=18847</v>
       </c>
       <c r="C2">
-        <v>9.32</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="3">
@@ -421,7 +421,7 @@
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=24452</v>
       </c>
       <c r="C4">
-        <v>9.4</v>
+        <v>9.39</v>
       </c>
     </row>
     <row r="5">
